--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1906.795</v>
+        <v>2051.11</v>
       </c>
       <c r="C2" t="n">
-        <v>1367.231</v>
+        <v>2608.299</v>
       </c>
       <c r="D2" t="n">
-        <v>4785.662</v>
+        <v>1477.138</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4014.411</v>
+        <v>1230.93</v>
       </c>
       <c r="C3" t="n">
-        <v>3427.045</v>
+        <v>2941.803</v>
       </c>
       <c r="D3" t="n">
-        <v>1225.886</v>
+        <v>4362.491</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3302.371</v>
+        <v>2154.797</v>
       </c>
       <c r="C4" t="n">
-        <v>2522.759</v>
+        <v>4013.111</v>
       </c>
       <c r="D4" t="n">
-        <v>4027.017</v>
+        <v>2125.961</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.624</v>
+        <v>4239.654</v>
       </c>
       <c r="C5" t="n">
-        <v>2032.666</v>
+        <v>2295.758</v>
       </c>
       <c r="D5" t="n">
-        <v>3151.291</v>
+        <v>2351.224</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3114.607</v>
+        <v>1564.689</v>
       </c>
       <c r="C6" t="n">
-        <v>4703.665</v>
+        <v>2978.001</v>
       </c>
       <c r="D6" t="n">
-        <v>3743.993</v>
+        <v>4283.007</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3985.447</v>
+        <v>1581.249</v>
       </c>
       <c r="C7" t="n">
-        <v>4453.007</v>
+        <v>1185.257</v>
       </c>
       <c r="D7" t="n">
-        <v>1490.067</v>
+        <v>1045.842</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1902.263</v>
+        <v>1062.164</v>
       </c>
       <c r="C8" t="n">
-        <v>4099.165</v>
+        <v>2161.235</v>
       </c>
       <c r="D8" t="n">
-        <v>4664.033</v>
+        <v>3549.34</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2302.022</v>
+        <v>3740.532</v>
       </c>
       <c r="C9" t="n">
-        <v>3301.7</v>
+        <v>4445.833</v>
       </c>
       <c r="D9" t="n">
-        <v>4073.684</v>
+        <v>4992.921</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4368.45</v>
+        <v>3371.964</v>
       </c>
       <c r="C10" t="n">
-        <v>2486.226</v>
+        <v>3157.3</v>
       </c>
       <c r="D10" t="n">
-        <v>3803.787</v>
+        <v>1200.493</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4250.387</v>
+        <v>1272.486</v>
       </c>
       <c r="C11" t="n">
-        <v>3874.565</v>
+        <v>1974.154</v>
       </c>
       <c r="D11" t="n">
-        <v>4587.031</v>
+        <v>4139.735</v>
       </c>
     </row>
   </sheetData>
